--- a/excel/Excel_Advanced/01_Worksheets/04_Date_Functions.xlsx
+++ b/excel/Excel_Advanced/01_Worksheets/04_Date_Functions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunilnair/Documents/ByteSize Trainings/curriculum/excel/Excel_Intermediate/01_Worksheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunilnair/Documents/ByteSize Trainings/curriculum/excel/Excel_Advanced/01_Worksheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2325106F-405F-8942-8093-934BEC1D7A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D590D77-CB90-4C47-B40A-66C73232C5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="13120" xr2:uid="{74146313-7F8C-A944-BB4A-F2A7C4F1CB8E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15780" xr2:uid="{74146313-7F8C-A944-BB4A-F2A7C4F1CB8E}"/>
   </bookViews>
   <sheets>
     <sheet name="DATEVALUE" sheetId="2" r:id="rId1"/>
@@ -463,7 +463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -492,7 +492,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -512,9 +511,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -552,7 +551,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -658,7 +657,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -800,7 +799,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -810,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9763120B-5EC6-004D-ABAD-52819119A07C}">
   <dimension ref="B1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="206" zoomScaleNormal="206" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1030,7 +1029,7 @@
   <dimension ref="B1:D32"/>
   <sheetViews>
     <sheetView zoomScale="243" zoomScaleNormal="243" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1058,7 +1057,7 @@
       <c r="C2" s="16">
         <v>40574</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1069,7 +1068,6 @@
       <c r="C3" s="16">
         <v>43307</v>
       </c>
-      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="16">
@@ -1078,7 +1076,6 @@
       <c r="C4" s="16">
         <v>40154</v>
       </c>
-      <c r="D4" s="24"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" s="16">
@@ -1087,7 +1084,6 @@
       <c r="C5" s="16">
         <v>41172</v>
       </c>
-      <c r="D5" s="24"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" s="16">
@@ -1096,7 +1092,6 @@
       <c r="C6" s="16">
         <v>44849</v>
       </c>
-      <c r="D6" s="24"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" s="16">
@@ -1105,7 +1100,6 @@
       <c r="C7" s="16">
         <v>45136</v>
       </c>
-      <c r="D7" s="24"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" s="16">
@@ -1114,7 +1108,6 @@
       <c r="C8" s="16">
         <v>40892</v>
       </c>
-      <c r="D8" s="24"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" s="16">
@@ -1123,7 +1116,6 @@
       <c r="C9" s="16">
         <v>39298</v>
       </c>
-      <c r="D9" s="24"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" s="16">
@@ -1132,7 +1124,6 @@
       <c r="C10" s="16">
         <v>39541</v>
       </c>
-      <c r="D10" s="24"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" s="16">
@@ -1141,7 +1132,6 @@
       <c r="C11" s="16">
         <v>42145</v>
       </c>
-      <c r="D11" s="24"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" s="16">
@@ -1150,7 +1140,6 @@
       <c r="C12" s="16">
         <v>39078</v>
       </c>
-      <c r="D12" s="24"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" s="16">
@@ -1159,7 +1148,6 @@
       <c r="C13" s="16">
         <v>39379</v>
       </c>
-      <c r="D13" s="24"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" s="16">
@@ -1168,7 +1156,6 @@
       <c r="C14" s="16">
         <v>39037</v>
       </c>
-      <c r="D14" s="24"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B15" s="16">
@@ -1177,7 +1164,6 @@
       <c r="C15" s="16">
         <v>39350</v>
       </c>
-      <c r="D15" s="24"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" s="16">
@@ -1186,151 +1172,134 @@
       <c r="C16" s="16">
         <v>38935</v>
       </c>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="16">
         <v>38687</v>
       </c>
       <c r="C17" s="16">
         <v>42950</v>
       </c>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="16">
         <v>38691</v>
       </c>
       <c r="C18" s="16">
         <v>43410</v>
       </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="16">
         <v>38695</v>
       </c>
       <c r="C19" s="16">
         <v>45105</v>
       </c>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="16">
         <v>38699</v>
       </c>
       <c r="C20" s="16">
         <v>45000</v>
       </c>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="16">
         <v>38703</v>
       </c>
       <c r="C21" s="16">
         <v>39808</v>
       </c>
-      <c r="D21" s="24"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="16">
         <v>38707</v>
       </c>
       <c r="C22" s="16">
         <v>44417</v>
       </c>
-      <c r="D22" s="24"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="16">
         <v>38711</v>
       </c>
       <c r="C23" s="16">
         <v>41772</v>
       </c>
-      <c r="D23" s="24"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="16">
         <v>38715</v>
       </c>
       <c r="C24" s="16">
         <v>41681</v>
       </c>
-      <c r="D24" s="24"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="16">
         <v>38719</v>
       </c>
       <c r="C25" s="16">
         <v>43277</v>
       </c>
-      <c r="D25" s="24"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="16">
         <v>38723</v>
       </c>
       <c r="C26" s="16">
         <v>38760</v>
       </c>
-      <c r="D26" s="24"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" s="16">
         <v>38727</v>
       </c>
       <c r="C27" s="16">
         <v>40106</v>
       </c>
-      <c r="D27" s="24"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" s="16">
         <v>38731</v>
       </c>
       <c r="C28" s="16">
         <v>43046</v>
       </c>
-      <c r="D28" s="24"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" s="16">
         <v>38735</v>
       </c>
       <c r="C29" s="16">
         <v>39097</v>
       </c>
-      <c r="D29" s="24"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" s="16">
         <v>38739</v>
       </c>
       <c r="C30" s="16">
         <v>44603</v>
       </c>
-      <c r="D30" s="24"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" s="16">
         <v>38743</v>
       </c>
       <c r="C31" s="16">
         <v>41717</v>
       </c>
-      <c r="D31" s="24"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32" s="16">
         <v>38747</v>
       </c>
       <c r="C32" s="16">
         <v>40602</v>
       </c>
-      <c r="D32" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1343,7 +1312,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
